--- a/XLSX/PatientD_df.xlsx
+++ b/XLSX/PatientD_df.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yaroona/Downloads/NovaInitia2-main/XLSX/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3684F956-EC87-FC4A-AACD-0F10D152D923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16440" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,9 +88,6 @@
     <t>irm_r</t>
   </si>
   <si>
-    <t>pc</t>
-  </si>
-  <si>
     <t>np_l</t>
   </si>
   <si>
@@ -158,13 +161,16 @@
   </si>
   <si>
     <t>zy_l</t>
+  </si>
+  <si>
+    <t>zy_r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +207,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +293,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +345,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,14 +538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,18 +555,18 @@
         <v>16.96</v>
       </c>
       <c r="C1">
-        <v>-17.9</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="D1">
         <v>95.67</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-19.06</v>
+        <v>-19.059999999999999</v>
       </c>
       <c r="C2">
         <v>-15.96</v>
@@ -523,7 +575,7 @@
         <v>92.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +589,7 @@
         <v>108.95</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -551,7 +603,7 @@
         <v>110.19</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -565,7 +617,7 @@
         <v>107.18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -579,7 +631,7 @@
         <v>108.77</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -593,7 +645,7 @@
         <v>112.32</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -607,7 +659,7 @@
         <v>114.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -621,7 +673,7 @@
         <v>89.73</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -632,10 +684,10 @@
         <v>-44.91</v>
       </c>
       <c r="D10">
-        <v>90.54000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>90.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -649,7 +701,7 @@
         <v>85.28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -663,7 +715,7 @@
         <v>85.02</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -677,7 +729,7 @@
         <v>81.16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -691,7 +743,7 @@
         <v>81.53</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -705,12 +757,12 @@
         <v>103.26</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C16">
         <v>-56.78</v>
@@ -719,7 +771,7 @@
         <v>99.92</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -733,7 +785,7 @@
         <v>103.83</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -747,7 +799,7 @@
         <v>103.79</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -761,7 +813,7 @@
         <v>101.92</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -772,10 +824,10 @@
         <v>-88.61</v>
       </c>
       <c r="D20">
-        <v>88.40000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -783,13 +835,13 @@
         <v>35.54</v>
       </c>
       <c r="C21">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="D21">
         <v>83.05</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -803,368 +855,368 @@
         <v>83.64</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-11.45</v>
+        <v>22.09</v>
       </c>
       <c r="C23">
-        <v>8.74</v>
+        <v>3.19</v>
       </c>
       <c r="D23">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>22.09</v>
+        <v>-20.309999999999999</v>
       </c>
       <c r="C24">
-        <v>3.19</v>
+        <v>5.51</v>
       </c>
       <c r="D24">
-        <v>91.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-20.31</v>
+        <v>0.79</v>
       </c>
       <c r="C25">
-        <v>5.51</v>
+        <v>21.06</v>
       </c>
       <c r="D25">
-        <v>89.29000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>102.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.79</v>
+        <v>-0.1</v>
       </c>
       <c r="C26">
-        <v>21.06</v>
+        <v>-74.13</v>
       </c>
       <c r="D26">
-        <v>102.72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>94.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.1</v>
+        <v>11.86</v>
       </c>
       <c r="C27">
-        <v>-74.13</v>
+        <v>-17.420000000000002</v>
       </c>
       <c r="D27">
-        <v>94.28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>99.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>11.86</v>
+        <v>-12.91</v>
       </c>
       <c r="C28">
-        <v>-17.42</v>
+        <v>-17.22</v>
       </c>
       <c r="D28">
-        <v>99.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>100.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-12.91</v>
+        <v>1.6</v>
       </c>
       <c r="C29">
-        <v>-17.22</v>
+        <v>-7.88</v>
       </c>
       <c r="D29">
-        <v>100.34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>118.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="C30">
-        <v>-7.88</v>
+        <v>14.26</v>
       </c>
       <c r="D30">
-        <v>118.95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>105.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.62</v>
+        <v>0.18</v>
       </c>
       <c r="C31">
-        <v>14.26</v>
+        <v>-44.01</v>
       </c>
       <c r="D31">
-        <v>105.81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.18</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="C32">
-        <v>-44.01</v>
+        <v>-16.93</v>
       </c>
       <c r="D32">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>101.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9.050000000000001</v>
+        <v>-10.17</v>
       </c>
       <c r="C33">
-        <v>-16.93</v>
+        <v>-18.8</v>
       </c>
       <c r="D33">
-        <v>101.36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>99.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-10.17</v>
+        <v>-0.76</v>
       </c>
       <c r="C34">
-        <v>-18.8</v>
+        <v>-60.22</v>
       </c>
       <c r="D34">
-        <v>99.92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>94.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.76</v>
+        <v>7.62</v>
       </c>
       <c r="C35">
-        <v>-60.22</v>
+        <v>-17.239999999999998</v>
       </c>
       <c r="D35">
-        <v>94.42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>102.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7.62</v>
+        <v>-5.64</v>
       </c>
       <c r="C36">
-        <v>-17.24</v>
+        <v>-18.54</v>
       </c>
       <c r="D36">
-        <v>102.04</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>102.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-5.64</v>
+        <v>0.45</v>
       </c>
       <c r="C37">
-        <v>-18.54</v>
+        <v>-19.02</v>
       </c>
       <c r="D37">
-        <v>102.69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>106.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.45</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>-19.02</v>
+        <v>32.85</v>
       </c>
       <c r="D38">
-        <v>106.48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>89.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>-33.28</v>
       </c>
       <c r="C39">
-        <v>32.85</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="D39">
-        <v>89.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>89.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-33.28</v>
+        <v>0.23</v>
       </c>
       <c r="C40">
-        <v>32.23</v>
+        <v>-1.55</v>
       </c>
       <c r="D40">
-        <v>89.64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>115.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.23</v>
+        <v>11.79</v>
       </c>
       <c r="C41">
-        <v>-1.55</v>
+        <v>-5.73</v>
       </c>
       <c r="D41">
-        <v>115.78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>110.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>11.79</v>
+        <v>-6.94</v>
       </c>
       <c r="C42">
-        <v>-5.73</v>
+        <v>-3.57</v>
       </c>
       <c r="D42">
-        <v>110.99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>113.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6.94</v>
+        <v>73.48</v>
       </c>
       <c r="C43">
-        <v>-3.57</v>
+        <v>5.21</v>
       </c>
       <c r="D43">
-        <v>113.41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>73.48</v>
+        <v>-73.59</v>
       </c>
       <c r="C44">
-        <v>5.21</v>
+        <v>5.17</v>
       </c>
       <c r="D44">
-        <v>-1.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-73.59</v>
+        <v>3.16</v>
       </c>
       <c r="C45">
-        <v>5.17</v>
+        <v>96.35</v>
       </c>
       <c r="D45">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3.16</v>
+        <v>-1.35</v>
       </c>
       <c r="C46">
-        <v>96.34999999999999</v>
+        <v>120.61</v>
       </c>
       <c r="D46">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>99.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1.35</v>
+        <v>56.82</v>
       </c>
       <c r="C47">
-        <v>120.61</v>
+        <v>-0.06</v>
       </c>
       <c r="D47">
-        <v>99.28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>56.82</v>
+        <v>-58.78</v>
       </c>
       <c r="C48">
-        <v>-0.06</v>
+        <v>3.67</v>
       </c>
       <c r="D48">
-        <v>71.75</v>
+        <v>66.66</v>
       </c>
     </row>
   </sheetData>
